--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C4A86-6FE4-4D70-B3BD-57B42F627CDC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,8 @@
     <sheet name="EditGroup" sheetId="8" r:id="rId8"/>
     <sheet name="DeleteGroup" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -92,11 +92,38 @@
   <si>
     <t>GrpAksh</t>
   </si>
+  <si>
+    <t>DeptPalak</t>
+  </si>
+  <si>
+    <t>GrpPalak</t>
+  </si>
+  <si>
+    <t>PalakChatTemplate</t>
+  </si>
+  <si>
+    <t>Updated Department Enabled</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,12 +160,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -234,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -411,31 +440,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -452,18 +481,21 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -471,8 +503,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -482,10 +517,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -557,7 +592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -592,16 +627,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3F8DA3-6B1F-4103-A73B-72F97F213317}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
@@ -621,7 +656,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -634,19 +669,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A112C11-67D6-431E-933F-AB0648C09CAA}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -656,16 +694,22 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A0F937-4006-47C2-BF8D-63D45CFD3ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -707,16 +751,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF80B45D-E77E-4AFA-AEDC-CA68BF1E57F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
@@ -739,10 +783,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -755,11 +799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD4F204-4F68-46D2-B02B-E6AD08E2F442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,8 +825,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
+      <c r="A2" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -797,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B2A18F-EBCB-4228-9896-295033B17E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,12 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="CreateDepartment" sheetId="4" r:id="rId4"/>
     <sheet name="EditDepartment" sheetId="5" r:id="rId5"/>
-    <sheet name="DeleteDepartment" sheetId="6" r:id="rId6"/>
-    <sheet name="CreateGroup" sheetId="7" r:id="rId7"/>
-    <sheet name="EditGroup" sheetId="8" r:id="rId8"/>
-    <sheet name="DeleteGroup" sheetId="9" r:id="rId9"/>
+    <sheet name="CreateGroup" sheetId="7" r:id="rId6"/>
+    <sheet name="EditGroup" sheetId="8" r:id="rId7"/>
+    <sheet name="Queries" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I20"/>
+  <oleSize ref="A1:N20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -36,9 +35,6 @@
     <t>Delete Reason</t>
   </si>
   <si>
-    <t>Deleted</t>
-  </si>
-  <si>
     <t>Department Name</t>
   </si>
   <si>
@@ -57,42 +53,21 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Intent</t>
-  </si>
-  <si>
-    <t>AkshChatTemplate</t>
-  </si>
-  <si>
     <t>Welcome to Chat Service</t>
   </si>
   <si>
-    <t>Welcome Message</t>
-  </si>
-  <si>
     <t>Chat Template Modified</t>
   </si>
   <si>
-    <t>Updated Name</t>
-  </si>
-  <si>
-    <t>UpdatedAkshChatTemplate</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>DeptAksh</t>
-  </si>
-  <si>
     <t>Department details modified</t>
   </si>
   <si>
     <t>Group Enabled</t>
   </si>
   <si>
-    <t>GrpAksh</t>
-  </si>
-  <si>
     <t>DeptPalak</t>
   </si>
   <si>
@@ -118,6 +93,47 @@
   </si>
   <si>
     <t>20:00:00</t>
+  </si>
+  <si>
+    <t>Updated Enabled</t>
+  </si>
+  <si>
+    <t>Updated Group Enabled</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT [Name]
+      ,[Enabled] 
+      ,[LAST_CHANGED_BY] as 'Last Changed By'
+      ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
+  FROM [Product_OCM].[dbo].[AGT_SMS_Template_Departments]</t>
+  </si>
+  <si>
+    <t>SELECT G.[Name]
+   ,D.[Name] as 'Department Name'
+      ,G.[Enabled]
+      ,G.[LAST_CHANGED_BY] as 'Last Changed By'
+      ,Substring(G.[LAST_CHANGED_ON],11,19) as 'Last Changed On'
+  FROM [Product_OCM].[dbo].[AGT_SMS_Template_Groups] G left Join[Product_OCM].[dbo].[AGT_SMS_Template_Departments] D
+   on G.DepartmentID=D.ID;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT B.Name
+  ,A.Name AS 'Group Name'
+  ,C.Name AS 'Department Name'
+  ,B.Enabled
+  ,B.Text
+  ,B.LAST_CHANGED_BY as 'Last Changed By'
+  ,SubString(B.LAST_CHANGED_ON,11,19) as 'Last Changed On'
+  ,B.StartTime as 'Start Time'
+  ,B.EndTime as 'End Time'
+   FROM AGT_SMS_TEMPLATES B LEFT join AGT_SMS_Template_Groups A ON A.ID=B.GroupID
+   Left JOIN AGT_SMS_Template_Departments c ON c.ID = A.DepartmentID;</t>
   </si>
 </sst>
 </file>
@@ -160,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -168,6 +184,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -450,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,50 +483,50 @@
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -518,72 +537,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -593,32 +619,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -648,18 +712,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +737,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,30 +750,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -718,39 +782,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -772,24 +803,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -798,41 +829,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -840,34 +885,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Queries" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:I20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -459,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +786,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Queries" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I20"/>
+  <oleSize ref="A1:G3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,22 +105,6 @@
   </si>
   <si>
     <t>Query</t>
-  </si>
-  <si>
-    <t>SELECT [Name]
-      ,[Enabled] 
-      ,[LAST_CHANGED_BY] as 'Last Changed By'
-      ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
-  FROM [Product_OCM].[dbo].[AGT_SMS_Template_Departments]</t>
-  </si>
-  <si>
-    <t>SELECT G.[Name]
-   ,D.[Name] as 'Department Name'
-      ,G.[Enabled]
-      ,G.[LAST_CHANGED_BY] as 'Last Changed By'
-      ,Substring(G.[LAST_CHANGED_ON],11,19) as 'Last Changed On'
-  FROM [Product_OCM].[dbo].[AGT_SMS_Template_Groups] G left Join[Product_OCM].[dbo].[AGT_SMS_Template_Departments] D
-   on G.DepartmentID=D.ID;</t>
   </si>
   <si>
     <t xml:space="preserve"> SELECT B.Name
@@ -134,6 +118,22 @@
   ,B.EndTime as 'End Time'
    FROM AGT_SMS_TEMPLATES B LEFT join AGT_SMS_Template_Groups A ON A.ID=B.GroupID
    Left JOIN AGT_SMS_Template_Departments c ON c.ID = A.DepartmentID;</t>
+  </si>
+  <si>
+    <t>SELECT [Name]
+      ,[Enabled] 
+      ,[LAST_CHANGED_BY] as 'Last Changed By'
+      ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
+  FROM [AGT_SMS_Template_Departments]</t>
+  </si>
+  <si>
+    <t>SELECT G.[Name]
+   ,D.[Name] as 'Department Name'
+      ,G.[Enabled]
+      ,G.[LAST_CHANGED_BY] as 'Last Changed By'
+      ,Substring(G.[LAST_CHANGED_ON],11,19) as 'Last Changed On'
+  FROM [AGT_SMS_Template_Groups] G left Join [AGT_SMS_Template_Departments] D
+   on G.DepartmentID=D.ID;</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -889,9 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -905,17 +903,17 @@
     </row>
     <row r="2" spans="1:1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Queries" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G3"/>
+  <oleSize ref="A1:H20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -134,6 +134,12 @@
       ,Substring(G.[LAST_CHANGED_ON],11,19) as 'Last Changed On'
   FROM [AGT_SMS_Template_Groups] G left Join [AGT_SMS_Template_Departments] D
    on G.DepartmentID=D.ID;</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Chat</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,10 +698,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,20 +716,26 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Queries" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H20"/>
+  <oleSize ref="A1:H18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Chat</t>
+  </si>
+  <si>
+    <t>Group details modified</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -701,7 +704,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,10 +749,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +763,7 @@
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -773,8 +776,11 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -786,6 +792,9 @@
       </c>
       <c r="D2" t="s">
         <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +855,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>

--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Queries" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H18"/>
+  <oleSize ref="A1:G3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -910,7 +910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -120,13 +120,6 @@
    Left JOIN AGT_SMS_Template_Departments c ON c.ID = A.DepartmentID;</t>
   </si>
   <si>
-    <t>SELECT [Name]
-      ,[Enabled] 
-      ,[LAST_CHANGED_BY] as 'Last Changed By'
-      ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
-  FROM [AGT_SMS_Template_Departments]</t>
-  </si>
-  <si>
     <t>SELECT G.[Name]
    ,D.[Name] as 'Department Name'
       ,G.[Enabled]
@@ -143,6 +136,13 @@
   </si>
   <si>
     <t>Group details modified</t>
+  </si>
+  <si>
+    <t>SELECT Channel,[Name]
+      ,[Enabled] 
+      ,[LAST_CHANGED_BY] as 'Last Changed By'
+      ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
+  FROM [AGT_SMS_Template_Departments]</t>
   </si>
 </sst>
 </file>
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +777,7 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +807,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -911,7 +911,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,12 +926,12 @@
     </row>
     <row r="2" spans="1:1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="180" x14ac:dyDescent="0.25">

--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,11 @@
     <sheet name="CreateGroup" sheetId="7" r:id="rId6"/>
     <sheet name="EditGroup" sheetId="8" r:id="rId7"/>
     <sheet name="Queries" sheetId="10" r:id="rId8"/>
+    <sheet name="DeleteDepartment" sheetId="11" r:id="rId9"/>
+    <sheet name="DeleteGroup" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G3"/>
+  <oleSize ref="A1:S24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="34">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -143,6 +145,12 @@
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
   FROM [AGT_SMS_Template_Departments]</t>
+  </si>
+  <si>
+    <t>DeleteDepartment</t>
+  </si>
+  <si>
+    <t>DeleteGroup</t>
   </si>
 </sst>
 </file>
@@ -544,6 +552,76 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
@@ -631,7 +709,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +782,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -942,4 +1020,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="DeleteGroup" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S24"/>
+  <oleSize ref="A1:O4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14145" windowHeight="6495" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="DeleteGroup" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O4"/>
+  <oleSize ref="A1:F4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,9 +134,6 @@
     <t>Channel</t>
   </si>
   <si>
-    <t>Chat</t>
-  </si>
-  <si>
     <t>Group details modified</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>DeleteGroup</t>
+  </si>
+  <si>
+    <t>TextChat</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,7 +487,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +782,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +830,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2" spans="1:1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="105" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1087,10 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
+++ b/ocms/target/test-classes/TestData/ChatTemplatesData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3666BE-E919-4880-A955-957912F3AA5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14145" windowHeight="6495" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,6 @@
     <sheet name="DeleteGroup" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -152,11 +152,35 @@
   <si>
     <t>TextChat</t>
   </si>
+  <si>
+    <t>OrgUnit</t>
+  </si>
+  <si>
+    <t>India&gt;South&gt;Bangalore&gt;Dell</t>
+  </si>
+  <si>
+    <t>CallFlowURL</t>
+  </si>
+  <si>
+    <t>Intent</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>TemplateType</t>
+  </si>
+  <si>
+    <t>Readonly</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,31 +500,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -522,8 +548,17 @@
       <c r="G1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -544,6 +579,15 @@
       </c>
       <c r="G2" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -553,19 +597,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -591,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -623,25 +667,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -670,7 +714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -705,22 +749,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -746,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -778,26 +822,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -807,8 +851,11 @@
       <c r="C1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -817,6 +864,9 @@
       </c>
       <c r="C2" t="s">
         <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -826,22 +876,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -858,7 +908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -881,26 +931,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -911,7 +961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -929,23 +979,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -962,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -985,34 +1035,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.7109375" customWidth="1"/>
+    <col min="1" max="1" width="83.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1023,19 +1073,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
